--- a/database/industries/chemical/sharum/cashflow/quarterly.xlsx
+++ b/database/industries/chemical/sharum/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\sharum\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8468EC59-952D-403C-9AB7-C266E5167A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-12-23 (3)</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1401-10-29 (3)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-27 (7)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-27</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -243,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +442,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -453,7 +454,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -500,6 +501,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -535,6 +553,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,23 +721,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -716,7 +752,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,7 +768,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,7 +784,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -762,7 +798,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -778,7 +814,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -794,7 +830,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -808,7 +844,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -844,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -880,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -894,7 +930,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -910,115 +946,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>-11543</v>
+        <v>-122929</v>
       </c>
       <c r="E12" s="15">
-        <v>-122929</v>
+        <v>-42747</v>
       </c>
       <c r="F12" s="15">
-        <v>-42747</v>
+        <v>480890</v>
       </c>
       <c r="G12" s="15">
-        <v>480890</v>
+        <v>-557697</v>
       </c>
       <c r="H12" s="15">
-        <v>-557697</v>
+        <v>-420719</v>
       </c>
       <c r="I12" s="15">
-        <v>-420719</v>
+        <v>-365781</v>
       </c>
       <c r="J12" s="15">
-        <v>-365781</v>
+        <v>-794141</v>
       </c>
       <c r="K12" s="15">
-        <v>-794141</v>
+        <v>-937143</v>
       </c>
       <c r="L12" s="15">
-        <v>-937143</v>
+        <v>1127987</v>
       </c>
       <c r="M12" s="15">
-        <v>1127987</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-13824</v>
+        <v>-2000</v>
       </c>
       <c r="E13" s="11">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>-3445</v>
       </c>
       <c r="H13" s="11">
-        <v>-3445</v>
+        <v>-24127</v>
       </c>
       <c r="I13" s="11">
-        <v>-24127</v>
+        <v>-18210</v>
       </c>
       <c r="J13" s="11">
-        <v>-18210</v>
+        <v>-9875</v>
       </c>
       <c r="K13" s="11">
-        <v>-9875</v>
+        <v>-55936</v>
       </c>
       <c r="L13" s="11">
-        <v>-55936</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-29370</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>-25367</v>
+        <v>-124929</v>
       </c>
       <c r="E14" s="17">
-        <v>-124929</v>
+        <v>-42747</v>
       </c>
       <c r="F14" s="17">
-        <v>-42747</v>
+        <v>480890</v>
       </c>
       <c r="G14" s="17">
-        <v>480890</v>
+        <v>-561142</v>
       </c>
       <c r="H14" s="17">
-        <v>-561142</v>
+        <v>-444846</v>
       </c>
       <c r="I14" s="17">
-        <v>-444846</v>
+        <v>-383991</v>
       </c>
       <c r="J14" s="17">
-        <v>-383991</v>
+        <v>-804016</v>
       </c>
       <c r="K14" s="17">
-        <v>-804016</v>
+        <v>-993079</v>
       </c>
       <c r="L14" s="17">
-        <v>-993079</v>
+        <v>1127987</v>
       </c>
       <c r="M14" s="17">
-        <v>1127987</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-23308</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1034,7 +1070,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1070,43 +1106,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>137649</v>
+        <v>-522</v>
       </c>
       <c r="E17" s="11">
-        <v>-522</v>
+        <v>-45136</v>
       </c>
       <c r="F17" s="11">
-        <v>-45136</v>
+        <v>-436011</v>
       </c>
       <c r="G17" s="11">
-        <v>-436011</v>
+        <v>344715</v>
       </c>
       <c r="H17" s="11">
-        <v>344715</v>
+        <v>-22378</v>
       </c>
       <c r="I17" s="11">
-        <v>-22378</v>
+        <v>-248876</v>
       </c>
       <c r="J17" s="11">
-        <v>-248876</v>
+        <v>-1653</v>
       </c>
       <c r="K17" s="11">
-        <v>-1653</v>
+        <v>-106173</v>
       </c>
       <c r="L17" s="11">
-        <v>-106173</v>
+        <v>-198457</v>
       </c>
       <c r="M17" s="11">
-        <v>-198457</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1307409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1142,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1214,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1250,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1286,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1313,52 +1349,52 @@
         <v>0</v>
       </c>
       <c r="K23" s="11">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L23" s="11">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="M23" s="11">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>11500</v>
+        <v>-11500</v>
       </c>
       <c r="E24" s="15">
-        <v>-11500</v>
+        <v>9497</v>
       </c>
       <c r="F24" s="15">
-        <v>9497</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15">
-        <v>0</v>
+        <v>-549</v>
       </c>
       <c r="H24" s="15">
-        <v>-549</v>
+        <v>0</v>
       </c>
       <c r="I24" s="15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J24" s="15">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K24" s="15">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="L24" s="15">
-        <v>-49</v>
+        <v>49</v>
       </c>
       <c r="M24" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
@@ -1379,46 +1415,46 @@
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>0</v>
+        <v>302750</v>
       </c>
       <c r="J25" s="11">
-        <v>302750</v>
+        <v>0</v>
       </c>
       <c r="K25" s="11">
-        <v>0</v>
+        <v>25450</v>
       </c>
       <c r="L25" s="11">
-        <v>25450</v>
+        <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>-11500</v>
+        <v>11500</v>
       </c>
       <c r="E26" s="15">
-        <v>11500</v>
+        <v>-191071</v>
       </c>
       <c r="F26" s="15">
-        <v>-191071</v>
+        <v>-6700</v>
       </c>
       <c r="G26" s="15">
-        <v>-6700</v>
+        <v>-846830</v>
       </c>
       <c r="H26" s="15">
-        <v>-846830</v>
+        <v>264000</v>
       </c>
       <c r="I26" s="15">
-        <v>264000</v>
+        <v>589530</v>
       </c>
       <c r="J26" s="15">
-        <v>589530</v>
+        <v>0</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -1430,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1466,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1502,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
@@ -1574,115 +1610,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>9056</v>
+        <v>9142</v>
       </c>
       <c r="E31" s="11">
-        <v>9142</v>
+        <v>7696</v>
       </c>
       <c r="F31" s="11">
-        <v>7696</v>
+        <v>15598</v>
       </c>
       <c r="G31" s="11">
-        <v>15598</v>
+        <v>31477</v>
       </c>
       <c r="H31" s="11">
-        <v>31477</v>
+        <v>54288</v>
       </c>
       <c r="I31" s="11">
-        <v>54288</v>
+        <v>29989</v>
       </c>
       <c r="J31" s="11">
-        <v>29989</v>
+        <v>2021</v>
       </c>
       <c r="K31" s="11">
-        <v>2021</v>
+        <v>1030</v>
       </c>
       <c r="L31" s="11">
-        <v>1030</v>
+        <v>676</v>
       </c>
       <c r="M31" s="11">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-387</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>146705</v>
+        <v>8620</v>
       </c>
       <c r="E32" s="17">
-        <v>8620</v>
+        <v>-219014</v>
       </c>
       <c r="F32" s="17">
-        <v>-219014</v>
+        <v>-427113</v>
       </c>
       <c r="G32" s="17">
-        <v>-427113</v>
+        <v>-471187</v>
       </c>
       <c r="H32" s="17">
-        <v>-471187</v>
+        <v>295910</v>
       </c>
       <c r="I32" s="17">
-        <v>295910</v>
+        <v>673893</v>
       </c>
       <c r="J32" s="17">
-        <v>673893</v>
+        <v>368</v>
       </c>
       <c r="K32" s="17">
-        <v>368</v>
+        <v>-79042</v>
       </c>
       <c r="L32" s="17">
-        <v>-79042</v>
+        <v>-196482</v>
       </c>
       <c r="M32" s="17">
-        <v>-196482</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1305230</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>121338</v>
+        <v>-116309</v>
       </c>
       <c r="E33" s="19">
-        <v>-116309</v>
+        <v>-261761</v>
       </c>
       <c r="F33" s="19">
-        <v>-261761</v>
+        <v>53777</v>
       </c>
       <c r="G33" s="19">
-        <v>53777</v>
+        <v>-1032329</v>
       </c>
       <c r="H33" s="19">
-        <v>-1032329</v>
+        <v>-148936</v>
       </c>
       <c r="I33" s="19">
-        <v>-148936</v>
+        <v>289902</v>
       </c>
       <c r="J33" s="19">
-        <v>289902</v>
+        <v>-803648</v>
       </c>
       <c r="K33" s="19">
-        <v>-803648</v>
+        <v>-1072121</v>
       </c>
       <c r="L33" s="19">
-        <v>-1072121</v>
+        <v>931505</v>
       </c>
       <c r="M33" s="19">
-        <v>931505</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1328538</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1698,16 +1734,16 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="E35" s="15">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
@@ -1734,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1754,8 +1790,8 @@
       <c r="H36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
+      <c r="I36" s="11">
+        <v>0</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>52</v>
@@ -1766,11 +1802,11 @@
       <c r="L36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1806,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1851,43 +1887,43 @@
         <v>0</v>
       </c>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F39" s="15">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>1150000</v>
       </c>
       <c r="H39" s="15">
-        <v>1150000</v>
+        <v>201920</v>
       </c>
       <c r="I39" s="15">
-        <v>201920</v>
+        <v>797698</v>
       </c>
       <c r="J39" s="15">
-        <v>797698</v>
+        <v>1129679</v>
       </c>
       <c r="K39" s="15">
-        <v>1129679</v>
+        <v>730605</v>
       </c>
       <c r="L39" s="15">
-        <v>730605</v>
+        <v>874369</v>
       </c>
       <c r="M39" s="15">
-        <v>874369</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2986504</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-70000</v>
+        <v>70000</v>
       </c>
       <c r="E40" s="11">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -1896,25 +1932,25 @@
         <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="I40" s="11">
-        <v>-100000</v>
+        <v>-319609</v>
       </c>
       <c r="J40" s="11">
-        <v>-319609</v>
+        <v>-444733</v>
       </c>
       <c r="K40" s="11">
-        <v>-444733</v>
+        <v>151822</v>
       </c>
       <c r="L40" s="11">
-        <v>151822</v>
+        <v>-594119</v>
       </c>
       <c r="M40" s="11">
-        <v>-594119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1503741</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -1935,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="I41" s="15">
-        <v>0</v>
+        <v>-118636</v>
       </c>
       <c r="J41" s="15">
-        <v>-118636</v>
+        <v>-50840</v>
       </c>
       <c r="K41" s="15">
-        <v>-50840</v>
+        <v>-70902</v>
       </c>
       <c r="L41" s="15">
-        <v>-70902</v>
+        <v>-193904</v>
       </c>
       <c r="M41" s="15">
-        <v>-193904</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-348462</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -1986,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2022,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2058,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2094,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2115,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="11">
-        <v>0</v>
+        <v>-360000</v>
       </c>
       <c r="J46" s="11">
-        <v>-360000</v>
+        <v>0</v>
       </c>
       <c r="K46" s="11">
         <v>0</v>
@@ -2130,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2166,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2202,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2238,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2247,214 +2283,214 @@
         <v>0</v>
       </c>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>-14641</v>
       </c>
       <c r="F50" s="11">
-        <v>-14641</v>
+        <v>-684</v>
       </c>
       <c r="G50" s="11">
-        <v>-684</v>
+        <v>-247</v>
       </c>
       <c r="H50" s="11">
-        <v>-247</v>
+        <v>-19</v>
       </c>
       <c r="I50" s="11">
-        <v>-19</v>
+        <v>-52266</v>
       </c>
       <c r="J50" s="11">
-        <v>-52266</v>
+        <v>-3056</v>
       </c>
       <c r="K50" s="11">
-        <v>-3056</v>
+        <v>-695</v>
       </c>
       <c r="L50" s="11">
-        <v>-695</v>
+        <v>-221029</v>
       </c>
       <c r="M50" s="11">
-        <v>-221029</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>53147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-69987</v>
+        <v>69987</v>
       </c>
       <c r="E51" s="17">
-        <v>69987</v>
+        <v>165359</v>
       </c>
       <c r="F51" s="17">
-        <v>165359</v>
+        <v>-684</v>
       </c>
       <c r="G51" s="17">
-        <v>-684</v>
+        <v>1149753</v>
       </c>
       <c r="H51" s="17">
-        <v>1149753</v>
+        <v>101901</v>
       </c>
       <c r="I51" s="17">
-        <v>101901</v>
+        <v>-52813</v>
       </c>
       <c r="J51" s="17">
-        <v>-52813</v>
+        <v>631050</v>
       </c>
       <c r="K51" s="17">
-        <v>631050</v>
+        <v>810830</v>
       </c>
       <c r="L51" s="17">
-        <v>810830</v>
+        <v>-134683</v>
       </c>
       <c r="M51" s="17">
-        <v>-134683</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1187448</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>51351</v>
+        <v>-46322</v>
       </c>
       <c r="E52" s="19">
-        <v>-46322</v>
+        <v>-96402</v>
       </c>
       <c r="F52" s="19">
-        <v>-96402</v>
+        <v>53093</v>
       </c>
       <c r="G52" s="19">
-        <v>53093</v>
+        <v>117424</v>
       </c>
       <c r="H52" s="19">
-        <v>117424</v>
+        <v>-47035</v>
       </c>
       <c r="I52" s="19">
-        <v>-47035</v>
+        <v>237089</v>
       </c>
       <c r="J52" s="19">
-        <v>237089</v>
+        <v>-172598</v>
       </c>
       <c r="K52" s="19">
-        <v>-172598</v>
+        <v>-261291</v>
       </c>
       <c r="L52" s="19">
-        <v>-261291</v>
+        <v>796822</v>
       </c>
       <c r="M52" s="19">
-        <v>796822</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-141090</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>139947</v>
+        <v>192275</v>
       </c>
       <c r="E53" s="15">
-        <v>192275</v>
+        <v>144976</v>
       </c>
       <c r="F53" s="15">
-        <v>144976</v>
+        <v>49576</v>
       </c>
       <c r="G53" s="15">
-        <v>49576</v>
+        <v>102669</v>
       </c>
       <c r="H53" s="15">
-        <v>102669</v>
+        <v>230762</v>
       </c>
       <c r="I53" s="15">
-        <v>230762</v>
+        <v>173058</v>
       </c>
       <c r="J53" s="15">
-        <v>173058</v>
+        <v>409973</v>
       </c>
       <c r="K53" s="15">
-        <v>409973</v>
+        <v>237375</v>
       </c>
       <c r="L53" s="15">
-        <v>237375</v>
+        <v>26534</v>
       </c>
       <c r="M53" s="15">
-        <v>26534</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>772906</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>977</v>
+        <v>-977</v>
       </c>
       <c r="E54" s="11">
-        <v>-977</v>
+        <v>1032</v>
       </c>
       <c r="F54" s="11">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>10670</v>
       </c>
       <c r="H54" s="11">
-        <v>10670</v>
+        <v>-10670</v>
       </c>
       <c r="I54" s="11">
-        <v>-10670</v>
+        <v>-174</v>
       </c>
       <c r="J54" s="11">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="K54" s="11">
-        <v>0</v>
+        <v>50450</v>
       </c>
       <c r="L54" s="11">
-        <v>50450</v>
+        <v>-50450</v>
       </c>
       <c r="M54" s="11">
-        <v>-50450</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>76804</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>192275</v>
+        <v>144976</v>
       </c>
       <c r="E55" s="17">
-        <v>144976</v>
+        <v>49576</v>
       </c>
       <c r="F55" s="17">
-        <v>49576</v>
+        <v>102669</v>
       </c>
       <c r="G55" s="17">
-        <v>102669</v>
+        <v>230762</v>
       </c>
       <c r="H55" s="17">
-        <v>230762</v>
+        <v>173058</v>
       </c>
       <c r="I55" s="17">
-        <v>173058</v>
+        <v>409973</v>
       </c>
       <c r="J55" s="17">
-        <v>409973</v>
+        <v>237375</v>
       </c>
       <c r="K55" s="17">
-        <v>237375</v>
+        <v>26534</v>
       </c>
       <c r="L55" s="17">
-        <v>26534</v>
+        <v>772906</v>
       </c>
       <c r="M55" s="17">
-        <v>772906</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>708620</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2490,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/chemical/sharum/cashflow/quarterly.xlsx
+++ b/database/industries/chemical/sharum/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\chemical\sharum\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8468EC59-952D-403C-9AB7-C266E5167A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EBBA2C-D68F-47DC-B4CC-77DE449CAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-12-23 (3)</t>
-  </si>
-  <si>
     <t>1401-04-05 (10)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-10-29 (3)</t>
   </si>
   <si>
-    <t>1402-02-27 (7)</t>
-  </si>
-  <si>
-    <t>1401-04-29</t>
+    <t>1402-04-13 (8)</t>
+  </si>
+  <si>
+    <t>1402-04-31 (2)</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-02-27</t>
+    <t>1402-04-31 (3)</t>
+  </si>
+  <si>
+    <t>1402-04-31</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -730,12 +730,12 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -952,34 +952,34 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>-122929</v>
+        <v>-42747</v>
       </c>
       <c r="E12" s="15">
-        <v>-42747</v>
+        <v>480890</v>
       </c>
       <c r="F12" s="15">
-        <v>480890</v>
+        <v>-557697</v>
       </c>
       <c r="G12" s="15">
-        <v>-557697</v>
+        <v>-420719</v>
       </c>
       <c r="H12" s="15">
-        <v>-420719</v>
+        <v>-365781</v>
       </c>
       <c r="I12" s="15">
-        <v>-365781</v>
+        <v>-794141</v>
       </c>
       <c r="J12" s="15">
-        <v>-794141</v>
+        <v>-937143</v>
       </c>
       <c r="K12" s="15">
-        <v>-937143</v>
+        <v>1127987</v>
       </c>
       <c r="L12" s="15">
-        <v>1127987</v>
+        <v>787978</v>
       </c>
       <c r="M12" s="15">
-        <v>6062</v>
+        <v>1057967</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -988,34 +988,34 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>-3445</v>
       </c>
       <c r="G13" s="11">
-        <v>-3445</v>
+        <v>-24127</v>
       </c>
       <c r="H13" s="11">
-        <v>-24127</v>
+        <v>-18210</v>
       </c>
       <c r="I13" s="11">
-        <v>-18210</v>
+        <v>-9875</v>
       </c>
       <c r="J13" s="11">
-        <v>-9875</v>
+        <v>-55936</v>
       </c>
       <c r="K13" s="11">
-        <v>-55936</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
+        <v>-29370</v>
       </c>
       <c r="M13" s="11">
-        <v>-29370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -1024,34 +1024,34 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>-124929</v>
+        <v>-42747</v>
       </c>
       <c r="E14" s="17">
-        <v>-42747</v>
+        <v>480890</v>
       </c>
       <c r="F14" s="17">
-        <v>480890</v>
+        <v>-561142</v>
       </c>
       <c r="G14" s="17">
-        <v>-561142</v>
+        <v>-444846</v>
       </c>
       <c r="H14" s="17">
-        <v>-444846</v>
+        <v>-383991</v>
       </c>
       <c r="I14" s="17">
-        <v>-383991</v>
+        <v>-804016</v>
       </c>
       <c r="J14" s="17">
-        <v>-804016</v>
+        <v>-993079</v>
       </c>
       <c r="K14" s="17">
-        <v>-993079</v>
+        <v>1127987</v>
       </c>
       <c r="L14" s="17">
-        <v>1127987</v>
+        <v>758608</v>
       </c>
       <c r="M14" s="17">
-        <v>-23308</v>
+        <v>1057967</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1112,34 +1112,34 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-522</v>
+        <v>-45136</v>
       </c>
       <c r="E17" s="11">
-        <v>-45136</v>
+        <v>-436011</v>
       </c>
       <c r="F17" s="11">
-        <v>-436011</v>
+        <v>344715</v>
       </c>
       <c r="G17" s="11">
-        <v>344715</v>
+        <v>-22378</v>
       </c>
       <c r="H17" s="11">
-        <v>-22378</v>
+        <v>-248876</v>
       </c>
       <c r="I17" s="11">
-        <v>-248876</v>
+        <v>-1653</v>
       </c>
       <c r="J17" s="11">
-        <v>-1653</v>
+        <v>-106173</v>
       </c>
       <c r="K17" s="11">
-        <v>-106173</v>
+        <v>-198457</v>
       </c>
       <c r="L17" s="11">
-        <v>-198457</v>
+        <v>-1429764</v>
       </c>
       <c r="M17" s="11">
-        <v>-1307409</v>
+        <v>-153716</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="15">
-        <v>0</v>
+        <v>-2493</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1346,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="11">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K23" s="11">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="L23" s="11">
-        <v>1250</v>
+        <v>-1250</v>
       </c>
       <c r="M23" s="11">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
@@ -1364,31 +1364,31 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-11500</v>
+        <v>9497</v>
       </c>
       <c r="E24" s="15">
-        <v>9497</v>
+        <v>0</v>
       </c>
       <c r="F24" s="15">
-        <v>0</v>
+        <v>-549</v>
       </c>
       <c r="G24" s="15">
-        <v>-549</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I24" s="15">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J24" s="15">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="K24" s="15">
+        <v>49</v>
+      </c>
+      <c r="L24" s="15">
         <v>-49</v>
-      </c>
-      <c r="L24" s="15">
-        <v>49</v>
       </c>
       <c r="M24" s="15">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>302750</v>
       </c>
       <c r="I25" s="11">
-        <v>302750</v>
+        <v>0</v>
       </c>
       <c r="J25" s="11">
-        <v>0</v>
+        <v>25450</v>
       </c>
       <c r="K25" s="11">
-        <v>25450</v>
+        <v>0</v>
       </c>
       <c r="L25" s="11">
-        <v>0</v>
+        <v>12601</v>
       </c>
       <c r="M25" s="11">
-        <v>2601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1436,22 +1436,22 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>11500</v>
+        <v>-191071</v>
       </c>
       <c r="E26" s="15">
-        <v>-191071</v>
+        <v>-6700</v>
       </c>
       <c r="F26" s="15">
-        <v>-6700</v>
+        <v>-846830</v>
       </c>
       <c r="G26" s="15">
-        <v>-846830</v>
+        <v>264000</v>
       </c>
       <c r="H26" s="15">
-        <v>264000</v>
+        <v>589530</v>
       </c>
       <c r="I26" s="15">
-        <v>589530</v>
+        <v>0</v>
       </c>
       <c r="J26" s="15">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="15">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="M26" s="15">
         <v>0</v>
@@ -1616,34 +1616,34 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>9142</v>
+        <v>7696</v>
       </c>
       <c r="E31" s="11">
-        <v>7696</v>
+        <v>15598</v>
       </c>
       <c r="F31" s="11">
-        <v>15598</v>
+        <v>31477</v>
       </c>
       <c r="G31" s="11">
-        <v>31477</v>
+        <v>54288</v>
       </c>
       <c r="H31" s="11">
-        <v>54288</v>
+        <v>29989</v>
       </c>
       <c r="I31" s="11">
-        <v>29989</v>
+        <v>2021</v>
       </c>
       <c r="J31" s="11">
-        <v>2021</v>
+        <v>1030</v>
       </c>
       <c r="K31" s="11">
-        <v>1030</v>
+        <v>676</v>
       </c>
       <c r="L31" s="11">
-        <v>676</v>
+        <v>-387</v>
       </c>
       <c r="M31" s="11">
-        <v>-387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -1652,34 +1652,34 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>8620</v>
+        <v>-219014</v>
       </c>
       <c r="E32" s="17">
-        <v>-219014</v>
+        <v>-427113</v>
       </c>
       <c r="F32" s="17">
-        <v>-427113</v>
+        <v>-471187</v>
       </c>
       <c r="G32" s="17">
-        <v>-471187</v>
+        <v>295910</v>
       </c>
       <c r="H32" s="17">
-        <v>295910</v>
+        <v>673893</v>
       </c>
       <c r="I32" s="17">
-        <v>673893</v>
+        <v>368</v>
       </c>
       <c r="J32" s="17">
-        <v>368</v>
+        <v>-79042</v>
       </c>
       <c r="K32" s="17">
-        <v>-79042</v>
+        <v>-196482</v>
       </c>
       <c r="L32" s="17">
-        <v>-196482</v>
+        <v>-1428849</v>
       </c>
       <c r="M32" s="17">
-        <v>-1305230</v>
+        <v>-156209</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
@@ -1688,34 +1688,34 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>-116309</v>
+        <v>-261761</v>
       </c>
       <c r="E33" s="19">
-        <v>-261761</v>
+        <v>53777</v>
       </c>
       <c r="F33" s="19">
-        <v>53777</v>
+        <v>-1032329</v>
       </c>
       <c r="G33" s="19">
-        <v>-1032329</v>
+        <v>-148936</v>
       </c>
       <c r="H33" s="19">
-        <v>-148936</v>
+        <v>289902</v>
       </c>
       <c r="I33" s="19">
-        <v>289902</v>
+        <v>-803648</v>
       </c>
       <c r="J33" s="19">
-        <v>-803648</v>
+        <v>-1072121</v>
       </c>
       <c r="K33" s="19">
-        <v>-1072121</v>
+        <v>931505</v>
       </c>
       <c r="L33" s="19">
-        <v>931505</v>
+        <v>-670241</v>
       </c>
       <c r="M33" s="19">
-        <v>-1328538</v>
+        <v>901758</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -1787,8 +1787,8 @@
       <c r="G36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>52</v>
+      <c r="H36" s="11">
+        <v>0</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
@@ -1799,8 +1799,8 @@
       <c r="K36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
+      <c r="L36" s="11">
+        <v>0</v>
       </c>
       <c r="M36" s="11">
         <v>0</v>
@@ -1884,34 +1884,34 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="E39" s="15">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>1150000</v>
       </c>
       <c r="G39" s="15">
-        <v>1150000</v>
+        <v>201920</v>
       </c>
       <c r="H39" s="15">
-        <v>201920</v>
+        <v>797698</v>
       </c>
       <c r="I39" s="15">
-        <v>797698</v>
+        <v>1129679</v>
       </c>
       <c r="J39" s="15">
-        <v>1129679</v>
+        <v>730605</v>
       </c>
       <c r="K39" s="15">
-        <v>730605</v>
+        <v>874369</v>
       </c>
       <c r="L39" s="15">
-        <v>874369</v>
+        <v>4375915</v>
       </c>
       <c r="M39" s="15">
-        <v>2986504</v>
+        <v>1230000</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="E40" s="11">
         <v>0</v>
@@ -1929,25 +1929,25 @@
         <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="H40" s="11">
-        <v>-100000</v>
+        <v>-319609</v>
       </c>
       <c r="I40" s="11">
-        <v>-319609</v>
+        <v>-444733</v>
       </c>
       <c r="J40" s="11">
-        <v>-444733</v>
+        <v>151822</v>
       </c>
       <c r="K40" s="11">
-        <v>151822</v>
+        <v>-594119</v>
       </c>
       <c r="L40" s="11">
-        <v>-594119</v>
+        <v>-3685800</v>
       </c>
       <c r="M40" s="11">
-        <v>-1503741</v>
+        <v>-1686767</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="H41" s="15">
-        <v>0</v>
+        <v>-118636</v>
       </c>
       <c r="I41" s="15">
-        <v>-118636</v>
+        <v>-50840</v>
       </c>
       <c r="J41" s="15">
-        <v>-50840</v>
+        <v>-70902</v>
       </c>
       <c r="K41" s="15">
-        <v>-70902</v>
+        <v>-193904</v>
       </c>
       <c r="L41" s="15">
-        <v>-193904</v>
+        <v>-189894</v>
       </c>
       <c r="M41" s="15">
-        <v>-348462</v>
+        <v>-151079</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="11">
-        <v>0</v>
+        <v>-360000</v>
       </c>
       <c r="I46" s="11">
-        <v>-360000</v>
+        <v>0</v>
       </c>
       <c r="J46" s="11">
         <v>0</v>
@@ -2280,34 +2280,34 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>0</v>
+        <v>-14641</v>
       </c>
       <c r="E50" s="11">
-        <v>-14641</v>
+        <v>-684</v>
       </c>
       <c r="F50" s="11">
-        <v>-684</v>
+        <v>-247</v>
       </c>
       <c r="G50" s="11">
-        <v>-247</v>
+        <v>-19</v>
       </c>
       <c r="H50" s="11">
-        <v>-19</v>
+        <v>-52266</v>
       </c>
       <c r="I50" s="11">
-        <v>-52266</v>
+        <v>-3056</v>
       </c>
       <c r="J50" s="11">
-        <v>-3056</v>
+        <v>-695</v>
       </c>
       <c r="K50" s="11">
-        <v>-695</v>
+        <v>-221029</v>
       </c>
       <c r="L50" s="11">
-        <v>-221029</v>
+        <v>53147</v>
       </c>
       <c r="M50" s="11">
-        <v>53147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
@@ -2316,34 +2316,34 @@
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>69987</v>
+        <v>165359</v>
       </c>
       <c r="E51" s="17">
-        <v>165359</v>
+        <v>-684</v>
       </c>
       <c r="F51" s="17">
-        <v>-684</v>
+        <v>1149753</v>
       </c>
       <c r="G51" s="17">
-        <v>1149753</v>
+        <v>101901</v>
       </c>
       <c r="H51" s="17">
-        <v>101901</v>
+        <v>-52813</v>
       </c>
       <c r="I51" s="17">
-        <v>-52813</v>
+        <v>631050</v>
       </c>
       <c r="J51" s="17">
-        <v>631050</v>
+        <v>810830</v>
       </c>
       <c r="K51" s="17">
-        <v>810830</v>
+        <v>-134683</v>
       </c>
       <c r="L51" s="17">
-        <v>-134683</v>
+        <v>553368</v>
       </c>
       <c r="M51" s="17">
-        <v>1187448</v>
+        <v>-607846</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
@@ -2352,34 +2352,34 @@
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>-46322</v>
+        <v>-96402</v>
       </c>
       <c r="E52" s="19">
-        <v>-96402</v>
+        <v>53093</v>
       </c>
       <c r="F52" s="19">
-        <v>53093</v>
+        <v>117424</v>
       </c>
       <c r="G52" s="19">
-        <v>117424</v>
+        <v>-47035</v>
       </c>
       <c r="H52" s="19">
-        <v>-47035</v>
+        <v>237089</v>
       </c>
       <c r="I52" s="19">
-        <v>237089</v>
+        <v>-172598</v>
       </c>
       <c r="J52" s="19">
-        <v>-172598</v>
+        <v>-261291</v>
       </c>
       <c r="K52" s="19">
-        <v>-261291</v>
+        <v>796822</v>
       </c>
       <c r="L52" s="19">
-        <v>796822</v>
+        <v>-116873</v>
       </c>
       <c r="M52" s="19">
-        <v>-141090</v>
+        <v>293912</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
@@ -2388,34 +2388,34 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>192275</v>
+        <v>144976</v>
       </c>
       <c r="E53" s="15">
-        <v>144976</v>
+        <v>49576</v>
       </c>
       <c r="F53" s="15">
-        <v>49576</v>
+        <v>102669</v>
       </c>
       <c r="G53" s="15">
-        <v>102669</v>
+        <v>230762</v>
       </c>
       <c r="H53" s="15">
-        <v>230762</v>
+        <v>173058</v>
       </c>
       <c r="I53" s="15">
-        <v>173058</v>
+        <v>409973</v>
       </c>
       <c r="J53" s="15">
-        <v>409973</v>
+        <v>237375</v>
       </c>
       <c r="K53" s="15">
-        <v>237375</v>
+        <v>26534</v>
       </c>
       <c r="L53" s="15">
-        <v>26534</v>
+        <v>772906</v>
       </c>
       <c r="M53" s="15">
-        <v>772906</v>
+        <v>709136</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
@@ -2424,34 +2424,34 @@
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>-977</v>
+        <v>1032</v>
       </c>
       <c r="E54" s="11">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
+        <v>10670</v>
       </c>
       <c r="G54" s="11">
-        <v>10670</v>
+        <v>-10670</v>
       </c>
       <c r="H54" s="11">
-        <v>-10670</v>
+        <v>-174</v>
       </c>
       <c r="I54" s="11">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="J54" s="11">
-        <v>0</v>
+        <v>50450</v>
       </c>
       <c r="K54" s="11">
-        <v>50450</v>
+        <v>-50450</v>
       </c>
       <c r="L54" s="11">
-        <v>-50450</v>
+        <v>53103</v>
       </c>
       <c r="M54" s="11">
-        <v>76804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -2460,34 +2460,34 @@
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>144976</v>
+        <v>49576</v>
       </c>
       <c r="E55" s="17">
-        <v>49576</v>
+        <v>102669</v>
       </c>
       <c r="F55" s="17">
-        <v>102669</v>
+        <v>230762</v>
       </c>
       <c r="G55" s="17">
-        <v>230762</v>
+        <v>173058</v>
       </c>
       <c r="H55" s="17">
-        <v>173058</v>
+        <v>409973</v>
       </c>
       <c r="I55" s="17">
-        <v>409973</v>
+        <v>237375</v>
       </c>
       <c r="J55" s="17">
-        <v>237375</v>
+        <v>26534</v>
       </c>
       <c r="K55" s="17">
-        <v>26534</v>
+        <v>772906</v>
       </c>
       <c r="L55" s="17">
-        <v>772906</v>
+        <v>709136</v>
       </c>
       <c r="M55" s="17">
-        <v>708620</v>
+        <v>1003048</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">

--- a/database/industries/chemical/sharum/cashflow/quarterly.xlsx
+++ b/database/industries/chemical/sharum/cashflow/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\chemical\sharum\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EBBA2C-D68F-47DC-B4CC-77DE449CAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE18F11-E3CC-49F6-A540-C3A2D13BE384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شاروم-پتروشیمی ارومیه</t>
@@ -37,6 +37,33 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,9 +94,36 @@
     <t>فصل اول منتهی به 1402/03</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-05-12 (5)</t>
+  </si>
+  <si>
+    <t>1399-05-08 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-29 (3)</t>
+  </si>
+  <si>
+    <t>1399-10-29</t>
+  </si>
+  <si>
+    <t>1400-04-15 (9)</t>
+  </si>
+  <si>
+    <t>1400-05-11 (4)</t>
+  </si>
+  <si>
+    <t>1400-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1400-12-23 (3)</t>
+  </si>
+  <si>
     <t>1401-04-05 (10)</t>
   </si>
   <si>
@@ -88,24 +142,30 @@
     <t>1402-04-31 (2)</t>
   </si>
   <si>
-    <t>1401-08-30 (2)</t>
+    <t>1402-08-30 (4)</t>
   </si>
   <si>
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-04-31 (3)</t>
+    <t>1402-08-30 (5)</t>
   </si>
   <si>
     <t>1402-04-31</t>
   </si>
   <si>
+    <t>1402-08-30 (2)</t>
+  </si>
+  <si>
     <t>فعالیتهای عملیاتی</t>
   </si>
   <si>
     <t>نقد حاصل از عملیات</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>مالیات بر درامد پرداختنی</t>
   </si>
   <si>
@@ -176,9 +236,6 @@
   </si>
   <si>
     <t>دریافت‌های نقدی حاصل از صرف سهام</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>وجوه دریافتی بابت فروش سهام شرکت اصلی توسط شرکتهای فرعی / سهام خزانه</t>
@@ -722,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,15 +787,20 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,8 +813,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,8 +839,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,8 +865,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,8 +889,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,8 +915,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,8 +941,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,8 +965,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,44 +1011,102 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,10 +1119,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,118 +1145,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="D12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-28683</v>
+      </c>
+      <c r="G12" s="15">
+        <v>199462</v>
+      </c>
+      <c r="H12" s="15">
+        <v>-38980</v>
+      </c>
+      <c r="I12" s="15">
+        <v>56160</v>
+      </c>
+      <c r="J12" s="15">
+        <v>181722</v>
+      </c>
+      <c r="K12" s="15">
+        <v>-11543</v>
+      </c>
+      <c r="L12" s="15">
+        <v>-122929</v>
+      </c>
+      <c r="M12" s="15">
         <v>-42747</v>
       </c>
-      <c r="E12" s="15">
+      <c r="N12" s="15">
         <v>480890</v>
       </c>
-      <c r="F12" s="15">
+      <c r="O12" s="15">
         <v>-557697</v>
       </c>
-      <c r="G12" s="15">
+      <c r="P12" s="15">
         <v>-420719</v>
       </c>
-      <c r="H12" s="15">
+      <c r="Q12" s="15">
         <v>-365781</v>
       </c>
-      <c r="I12" s="15">
+      <c r="R12" s="15">
         <v>-794141</v>
       </c>
-      <c r="J12" s="15">
+      <c r="S12" s="15">
         <v>-937143</v>
       </c>
-      <c r="K12" s="15">
+      <c r="T12" s="15">
         <v>1127987</v>
       </c>
-      <c r="L12" s="15">
+      <c r="U12" s="15">
         <v>787978</v>
       </c>
-      <c r="M12" s="15">
+      <c r="V12" s="15">
         <v>1057967</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W12" s="15">
+        <v>1170180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-26364</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-5499</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-13824</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-2000</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
         <v>-3445</v>
       </c>
-      <c r="G13" s="11">
+      <c r="P13" s="11">
         <v>-24127</v>
       </c>
-      <c r="H13" s="11">
+      <c r="Q13" s="11">
         <v>-18210</v>
       </c>
-      <c r="I13" s="11">
+      <c r="R13" s="11">
         <v>-9875</v>
       </c>
-      <c r="J13" s="11">
+      <c r="S13" s="11">
         <v>-55936</v>
       </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
         <v>-29370</v>
       </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-62618</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="17">
+      <c r="D14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-28683</v>
+      </c>
+      <c r="G14" s="17">
+        <v>173098</v>
+      </c>
+      <c r="H14" s="17">
+        <v>-44479</v>
+      </c>
+      <c r="I14" s="17">
+        <v>56159</v>
+      </c>
+      <c r="J14" s="17">
+        <v>181722</v>
+      </c>
+      <c r="K14" s="17">
+        <v>-25367</v>
+      </c>
+      <c r="L14" s="17">
+        <v>-124929</v>
+      </c>
+      <c r="M14" s="17">
         <v>-42747</v>
       </c>
-      <c r="E14" s="17">
+      <c r="N14" s="17">
         <v>480890</v>
       </c>
-      <c r="F14" s="17">
+      <c r="O14" s="17">
         <v>-561142</v>
       </c>
-      <c r="G14" s="17">
+      <c r="P14" s="17">
         <v>-444846</v>
       </c>
-      <c r="H14" s="17">
+      <c r="Q14" s="17">
         <v>-383991</v>
       </c>
-      <c r="I14" s="17">
+      <c r="R14" s="17">
         <v>-804016</v>
       </c>
-      <c r="J14" s="17">
+      <c r="S14" s="17">
         <v>-993079</v>
       </c>
-      <c r="K14" s="17">
+      <c r="T14" s="17">
         <v>1127987</v>
       </c>
-      <c r="L14" s="17">
+      <c r="U14" s="17">
         <v>758608</v>
       </c>
-      <c r="M14" s="17">
+      <c r="V14" s="17">
         <v>1057967</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W14" s="17">
+        <v>1107562</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1069,17 +1369,27 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
+      <c r="D16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -1105,53 +1415,113 @@
       <c r="M16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11">
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-16589</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-48410</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-161001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>134154</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-150639</v>
+      </c>
+      <c r="K17" s="11">
+        <v>137649</v>
+      </c>
+      <c r="L17" s="11">
+        <v>-522</v>
+      </c>
+      <c r="M17" s="11">
         <v>-45136</v>
       </c>
-      <c r="E17" s="11">
+      <c r="N17" s="11">
         <v>-436011</v>
       </c>
-      <c r="F17" s="11">
+      <c r="O17" s="11">
         <v>344715</v>
       </c>
-      <c r="G17" s="11">
+      <c r="P17" s="11">
         <v>-22378</v>
       </c>
-      <c r="H17" s="11">
+      <c r="Q17" s="11">
         <v>-248876</v>
       </c>
-      <c r="I17" s="11">
+      <c r="R17" s="11">
         <v>-1653</v>
       </c>
-      <c r="J17" s="11">
+      <c r="S17" s="11">
         <v>-106173</v>
       </c>
-      <c r="K17" s="11">
+      <c r="T17" s="11">
         <v>-198457</v>
       </c>
-      <c r="L17" s="11">
+      <c r="U17" s="11">
         <v>-1429764</v>
       </c>
-      <c r="M17" s="11">
+      <c r="V17" s="11">
         <v>-153716</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W17" s="11">
+        <v>-728067</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
+      <c r="D18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
@@ -1177,17 +1547,47 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -1213,17 +1613,47 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
+      <c r="D20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
@@ -1247,19 +1677,49 @@
         <v>0</v>
       </c>
       <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
         <v>-2493</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W20" s="15">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -1285,17 +1745,47 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
+      <c r="D22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
@@ -1321,17 +1811,47 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
+      <c r="D23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -1346,64 +1866,124 @@
         <v>0</v>
       </c>
       <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
         <v>700</v>
       </c>
-      <c r="K23" s="11">
+      <c r="T23" s="11">
         <v>1250</v>
       </c>
-      <c r="L23" s="11">
+      <c r="U23" s="11">
         <v>-1250</v>
       </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="15">
+      <c r="D24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>-11500</v>
+      </c>
+      <c r="K24" s="15">
+        <v>11500</v>
+      </c>
+      <c r="L24" s="15">
+        <v>-11500</v>
+      </c>
+      <c r="M24" s="15">
         <v>9497</v>
       </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
         <v>-549</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
         <v>500</v>
       </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
         <v>-49</v>
       </c>
-      <c r="K24" s="15">
+      <c r="T24" s="15">
         <v>49</v>
       </c>
-      <c r="L24" s="15">
+      <c r="U24" s="15">
         <v>-49</v>
       </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
+      <c r="D25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
@@ -1412,70 +1992,130 @@
         <v>0</v>
       </c>
       <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
         <v>302750</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
         <v>25450</v>
       </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
         <v>12601</v>
       </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="15">
+      <c r="D26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>-31000</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-11500</v>
+      </c>
+      <c r="L26" s="15">
+        <v>11500</v>
+      </c>
+      <c r="M26" s="15">
         <v>-191071</v>
       </c>
-      <c r="E26" s="15">
+      <c r="N26" s="15">
         <v>-6700</v>
       </c>
-      <c r="F26" s="15">
+      <c r="O26" s="15">
         <v>-846830</v>
       </c>
-      <c r="G26" s="15">
+      <c r="P26" s="15">
         <v>264000</v>
       </c>
-      <c r="H26" s="15">
+      <c r="Q26" s="15">
         <v>589530</v>
       </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
         <v>-10000</v>
       </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
+      <c r="D27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
@@ -1501,17 +2141,47 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="15">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
+      <c r="D28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1537,17 +2207,47 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
+      <c r="D29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
@@ -1573,17 +2273,47 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
+      <c r="D30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
@@ -1609,118 +2339,238 @@
       <c r="M30" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="11">
+      <c r="D31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="11">
+        <v>11070</v>
+      </c>
+      <c r="G31" s="11">
+        <v>8701</v>
+      </c>
+      <c r="H31" s="11">
+        <v>-10928</v>
+      </c>
+      <c r="I31" s="11">
+        <v>27615</v>
+      </c>
+      <c r="J31" s="11">
+        <v>10497</v>
+      </c>
+      <c r="K31" s="11">
+        <v>9056</v>
+      </c>
+      <c r="L31" s="11">
+        <v>9142</v>
+      </c>
+      <c r="M31" s="11">
         <v>7696</v>
       </c>
-      <c r="E31" s="11">
+      <c r="N31" s="11">
         <v>15598</v>
       </c>
-      <c r="F31" s="11">
+      <c r="O31" s="11">
         <v>31477</v>
       </c>
-      <c r="G31" s="11">
+      <c r="P31" s="11">
         <v>54288</v>
       </c>
-      <c r="H31" s="11">
+      <c r="Q31" s="11">
         <v>29989</v>
       </c>
-      <c r="I31" s="11">
+      <c r="R31" s="11">
         <v>2021</v>
       </c>
-      <c r="J31" s="11">
+      <c r="S31" s="11">
         <v>1030</v>
       </c>
-      <c r="K31" s="11">
+      <c r="T31" s="11">
         <v>676</v>
       </c>
-      <c r="L31" s="11">
+      <c r="U31" s="11">
         <v>-387</v>
       </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="11">
+        <v>0</v>
+      </c>
+      <c r="W31" s="11">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="17">
+      <c r="D32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-5519</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-39709</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-171929</v>
+      </c>
+      <c r="I32" s="17">
+        <v>130769</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-151642</v>
+      </c>
+      <c r="K32" s="17">
+        <v>146705</v>
+      </c>
+      <c r="L32" s="17">
+        <v>8620</v>
+      </c>
+      <c r="M32" s="17">
         <v>-219014</v>
       </c>
-      <c r="E32" s="17">
+      <c r="N32" s="17">
         <v>-427113</v>
       </c>
-      <c r="F32" s="17">
+      <c r="O32" s="17">
         <v>-471187</v>
       </c>
-      <c r="G32" s="17">
+      <c r="P32" s="17">
         <v>295910</v>
       </c>
-      <c r="H32" s="17">
+      <c r="Q32" s="17">
         <v>673893</v>
       </c>
-      <c r="I32" s="17">
+      <c r="R32" s="17">
         <v>368</v>
       </c>
-      <c r="J32" s="17">
+      <c r="S32" s="17">
         <v>-79042</v>
       </c>
-      <c r="K32" s="17">
+      <c r="T32" s="17">
         <v>-196482</v>
       </c>
-      <c r="L32" s="17">
+      <c r="U32" s="17">
         <v>-1428849</v>
       </c>
-      <c r="M32" s="17">
+      <c r="V32" s="17">
         <v>-156209</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W32" s="17">
+        <v>-725418</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
-      <c r="D33" s="19">
+      <c r="D33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="19">
+        <v>-34202</v>
+      </c>
+      <c r="G33" s="19">
+        <v>133389</v>
+      </c>
+      <c r="H33" s="19">
+        <v>-216408</v>
+      </c>
+      <c r="I33" s="19">
+        <v>186928</v>
+      </c>
+      <c r="J33" s="19">
+        <v>30080</v>
+      </c>
+      <c r="K33" s="19">
+        <v>121338</v>
+      </c>
+      <c r="L33" s="19">
+        <v>-116309</v>
+      </c>
+      <c r="M33" s="19">
         <v>-261761</v>
       </c>
-      <c r="E33" s="19">
+      <c r="N33" s="19">
         <v>53777</v>
       </c>
-      <c r="F33" s="19">
+      <c r="O33" s="19">
         <v>-1032329</v>
       </c>
-      <c r="G33" s="19">
+      <c r="P33" s="19">
         <v>-148936</v>
       </c>
-      <c r="H33" s="19">
+      <c r="Q33" s="19">
         <v>289902</v>
       </c>
-      <c r="I33" s="19">
+      <c r="R33" s="19">
         <v>-803648</v>
       </c>
-      <c r="J33" s="19">
+      <c r="S33" s="19">
         <v>-1072121</v>
       </c>
-      <c r="K33" s="19">
+      <c r="T33" s="19">
         <v>931505</v>
       </c>
-      <c r="L33" s="19">
+      <c r="U33" s="19">
         <v>-670241</v>
       </c>
-      <c r="M33" s="19">
+      <c r="V33" s="19">
         <v>901758</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W33" s="19">
+        <v>382144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1733,17 +2583,27 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <v>0</v>
+      <c r="D35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
@@ -1755,67 +2615,127 @@
         <v>0</v>
       </c>
       <c r="I35" s="15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J35" s="15">
         <v>0</v>
       </c>
       <c r="K35" s="15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L35" s="15">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="15">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0</v>
+      <c r="D37" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
@@ -1841,17 +2761,47 @@
       <c r="M37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1877,89 +2827,179 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
+      <c r="D39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>70000</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
         <v>180000</v>
       </c>
-      <c r="E39" s="15">
-        <v>0</v>
-      </c>
-      <c r="F39" s="15">
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
         <v>1150000</v>
       </c>
-      <c r="G39" s="15">
+      <c r="P39" s="15">
         <v>201920</v>
       </c>
-      <c r="H39" s="15">
+      <c r="Q39" s="15">
         <v>797698</v>
       </c>
-      <c r="I39" s="15">
+      <c r="R39" s="15">
         <v>1129679</v>
       </c>
-      <c r="J39" s="15">
+      <c r="S39" s="15">
         <v>730605</v>
       </c>
-      <c r="K39" s="15">
+      <c r="T39" s="15">
         <v>874369</v>
       </c>
-      <c r="L39" s="15">
+      <c r="U39" s="15">
         <v>4375915</v>
       </c>
-      <c r="M39" s="15">
+      <c r="V39" s="15">
         <v>1230000</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W39" s="15">
+        <v>3179436</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
+      <c r="D40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
       </c>
       <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-70000</v>
+      </c>
+      <c r="L40" s="11">
+        <v>70000</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
         <v>-100000</v>
       </c>
-      <c r="H40" s="11">
+      <c r="Q40" s="11">
         <v>-319609</v>
       </c>
-      <c r="I40" s="11">
+      <c r="R40" s="11">
         <v>-444733</v>
       </c>
-      <c r="J40" s="11">
+      <c r="S40" s="11">
         <v>151822</v>
       </c>
-      <c r="K40" s="11">
+      <c r="T40" s="11">
         <v>-594119</v>
       </c>
-      <c r="L40" s="11">
+      <c r="U40" s="11">
         <v>-3685800</v>
       </c>
-      <c r="M40" s="11">
+      <c r="V40" s="11">
         <v>-1686767</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W40" s="11">
+        <v>-3009341</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0</v>
+      <c r="D41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
@@ -1968,34 +3008,64 @@
         <v>0</v>
       </c>
       <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0</v>
+      </c>
+      <c r="P41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15">
         <v>-118636</v>
       </c>
-      <c r="I41" s="15">
+      <c r="R41" s="15">
         <v>-50840</v>
       </c>
-      <c r="J41" s="15">
+      <c r="S41" s="15">
         <v>-70902</v>
       </c>
-      <c r="K41" s="15">
+      <c r="T41" s="15">
         <v>-193904</v>
       </c>
-      <c r="L41" s="15">
+      <c r="U41" s="15">
         <v>-189894</v>
       </c>
-      <c r="M41" s="15">
+      <c r="V41" s="15">
         <v>-151079</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W41" s="15">
+        <v>-256686</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
+      <c r="D42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -2021,17 +3091,47 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="15">
-        <v>0</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0</v>
+      <c r="D43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
@@ -2057,17 +3157,47 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
+      <c r="D44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>
@@ -2093,17 +3223,47 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15">
-        <v>0</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0</v>
+      <c r="D45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
@@ -2129,17 +3289,47 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
+      <c r="D46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -2148,34 +3338,64 @@
         <v>0</v>
       </c>
       <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
         <v>-360000</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15">
-        <v>0</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0</v>
+      <c r="D47" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -2201,17 +3421,47 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
+      <c r="D48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -2237,17 +3487,47 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
@@ -2273,233 +3553,443 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11">
+      <c r="D50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-231874</v>
+      </c>
+      <c r="H50" s="11">
+        <v>231874</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-231874</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
         <v>-14641</v>
       </c>
-      <c r="E50" s="11">
+      <c r="N50" s="11">
         <v>-684</v>
       </c>
-      <c r="F50" s="11">
+      <c r="O50" s="11">
         <v>-247</v>
       </c>
-      <c r="G50" s="11">
+      <c r="P50" s="11">
         <v>-19</v>
       </c>
-      <c r="H50" s="11">
+      <c r="Q50" s="11">
         <v>-52266</v>
       </c>
-      <c r="I50" s="11">
+      <c r="R50" s="11">
         <v>-3056</v>
       </c>
-      <c r="J50" s="11">
+      <c r="S50" s="11">
         <v>-695</v>
       </c>
-      <c r="K50" s="11">
+      <c r="T50" s="11">
         <v>-221029</v>
       </c>
-      <c r="L50" s="11">
+      <c r="U50" s="11">
         <v>53147</v>
       </c>
-      <c r="M50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>0</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="17">
+      <c r="D51" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-231874</v>
+      </c>
+      <c r="H51" s="17">
+        <v>231874</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-161848</v>
+      </c>
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
+        <v>-69987</v>
+      </c>
+      <c r="L51" s="17">
+        <v>69987</v>
+      </c>
+      <c r="M51" s="17">
         <v>165359</v>
       </c>
-      <c r="E51" s="17">
+      <c r="N51" s="17">
         <v>-684</v>
       </c>
-      <c r="F51" s="17">
+      <c r="O51" s="17">
         <v>1149753</v>
       </c>
-      <c r="G51" s="17">
+      <c r="P51" s="17">
         <v>101901</v>
       </c>
-      <c r="H51" s="17">
+      <c r="Q51" s="17">
         <v>-52813</v>
       </c>
-      <c r="I51" s="17">
+      <c r="R51" s="17">
         <v>631050</v>
       </c>
-      <c r="J51" s="17">
+      <c r="S51" s="17">
         <v>810830</v>
       </c>
-      <c r="K51" s="17">
+      <c r="T51" s="17">
         <v>-134683</v>
       </c>
-      <c r="L51" s="17">
+      <c r="U51" s="17">
         <v>553368</v>
       </c>
-      <c r="M51" s="17">
+      <c r="V51" s="17">
         <v>-607846</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W51" s="17">
+        <v>-86627</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C52" s="19"/>
-      <c r="D52" s="19">
+      <c r="D52" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-34202</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-98485</v>
+      </c>
+      <c r="H52" s="19">
+        <v>15466</v>
+      </c>
+      <c r="I52" s="19">
+        <v>25080</v>
+      </c>
+      <c r="J52" s="19">
+        <v>30080</v>
+      </c>
+      <c r="K52" s="19">
+        <v>51351</v>
+      </c>
+      <c r="L52" s="19">
+        <v>-46322</v>
+      </c>
+      <c r="M52" s="19">
         <v>-96402</v>
       </c>
-      <c r="E52" s="19">
+      <c r="N52" s="19">
         <v>53093</v>
       </c>
-      <c r="F52" s="19">
+      <c r="O52" s="19">
         <v>117424</v>
       </c>
-      <c r="G52" s="19">
+      <c r="P52" s="19">
         <v>-47035</v>
       </c>
-      <c r="H52" s="19">
+      <c r="Q52" s="19">
         <v>237089</v>
       </c>
-      <c r="I52" s="19">
+      <c r="R52" s="19">
         <v>-172598</v>
       </c>
-      <c r="J52" s="19">
+      <c r="S52" s="19">
         <v>-261291</v>
       </c>
-      <c r="K52" s="19">
+      <c r="T52" s="19">
         <v>796822</v>
       </c>
-      <c r="L52" s="19">
+      <c r="U52" s="19">
         <v>-116873</v>
       </c>
-      <c r="M52" s="19">
+      <c r="V52" s="19">
         <v>293912</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W52" s="19">
+        <v>295517</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15">
+      <c r="D53" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="15">
+        <v>201327</v>
+      </c>
+      <c r="G53" s="15">
+        <v>167125</v>
+      </c>
+      <c r="H53" s="15">
+        <v>69586</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="15">
+        <v>109867</v>
+      </c>
+      <c r="K53" s="15">
+        <v>139947</v>
+      </c>
+      <c r="L53" s="15">
+        <v>192275</v>
+      </c>
+      <c r="M53" s="15">
         <v>144976</v>
       </c>
-      <c r="E53" s="15">
+      <c r="N53" s="15">
         <v>49576</v>
       </c>
-      <c r="F53" s="15">
+      <c r="O53" s="15">
         <v>102669</v>
       </c>
-      <c r="G53" s="15">
+      <c r="P53" s="15">
         <v>230762</v>
       </c>
-      <c r="H53" s="15">
+      <c r="Q53" s="15">
         <v>173058</v>
       </c>
-      <c r="I53" s="15">
+      <c r="R53" s="15">
         <v>409973</v>
       </c>
-      <c r="J53" s="15">
+      <c r="S53" s="15">
         <v>237375</v>
       </c>
-      <c r="K53" s="15">
+      <c r="T53" s="15">
         <v>26534</v>
       </c>
-      <c r="L53" s="15">
+      <c r="U53" s="15">
         <v>772906</v>
       </c>
-      <c r="M53" s="15">
+      <c r="V53" s="15">
         <v>709136</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W53" s="15">
+        <v>1003048</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
+      <c r="D54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>946</v>
+      </c>
+      <c r="H54" s="11">
+        <v>-946</v>
+      </c>
+      <c r="I54" s="11">
+        <v>681</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>977</v>
+      </c>
+      <c r="L54" s="11">
+        <v>-977</v>
+      </c>
+      <c r="M54" s="11">
         <v>1032</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
         <v>10670</v>
       </c>
-      <c r="G54" s="11">
+      <c r="P54" s="11">
         <v>-10670</v>
       </c>
-      <c r="H54" s="11">
+      <c r="Q54" s="11">
         <v>-174</v>
       </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
         <v>50450</v>
       </c>
-      <c r="K54" s="11">
+      <c r="T54" s="11">
         <v>-50450</v>
       </c>
-      <c r="L54" s="11">
+      <c r="U54" s="11">
         <v>53103</v>
       </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="17">
+      <c r="D55" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="17">
+        <v>167125</v>
+      </c>
+      <c r="G55" s="17">
+        <v>69586</v>
+      </c>
+      <c r="H55" s="17">
+        <v>84106</v>
+      </c>
+      <c r="I55" s="17">
+        <v>109867</v>
+      </c>
+      <c r="J55" s="17">
+        <v>139947</v>
+      </c>
+      <c r="K55" s="17">
+        <v>192275</v>
+      </c>
+      <c r="L55" s="17">
+        <v>144976</v>
+      </c>
+      <c r="M55" s="17">
         <v>49576</v>
       </c>
-      <c r="E55" s="17">
+      <c r="N55" s="17">
         <v>102669</v>
       </c>
-      <c r="F55" s="17">
+      <c r="O55" s="17">
         <v>230762</v>
       </c>
-      <c r="G55" s="17">
+      <c r="P55" s="17">
         <v>173058</v>
       </c>
-      <c r="H55" s="17">
+      <c r="Q55" s="17">
         <v>409973</v>
       </c>
-      <c r="I55" s="17">
+      <c r="R55" s="17">
         <v>237375</v>
       </c>
-      <c r="J55" s="17">
+      <c r="S55" s="17">
         <v>26534</v>
       </c>
-      <c r="K55" s="17">
+      <c r="T55" s="17">
         <v>772906</v>
       </c>
-      <c r="L55" s="17">
+      <c r="U55" s="17">
         <v>709136</v>
       </c>
-      <c r="M55" s="17">
+      <c r="V55" s="17">
         <v>1003048</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W55" s="17">
+        <v>1301047</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0</v>
+      <c r="D56" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
@@ -2525,8 +4015,38 @@
       <c r="M56" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2539,6 +4059,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
